--- a/Test Data/System Admin.xlsx
+++ b/Test Data/System Admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EclipseWorkSpace\MISv2\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B8A7D1-8E35-443E-AD04-6B48707AFA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF92B81-3F5F-4FE9-87CC-070150183418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FD576686-DE27-4460-B100-295DE77A0474}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>Staff Clock-in Monitoring</t>
   </si>
   <si>
-    <t>Type 1 for Done</t>
-  </si>
-  <si>
     <t>Live System Monitoring</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>Specify in Brief</t>
+  </si>
+  <si>
+    <t>Type 1 For Done</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,24 +491,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -519,7 +519,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -527,10 +527,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -538,10 +538,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -549,10 +549,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -560,10 +560,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -571,10 +571,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -582,10 +582,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -593,10 +593,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -604,10 +604,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -615,10 +615,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -626,10 +626,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -637,10 +637,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -648,10 +648,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -659,10 +659,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -670,10 +670,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -695,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -703,10 +703,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
